--- a/related_files/employee.xlsx
+++ b/related_files/employee.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\py_project\birthday\related_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23499F66-544C-45A2-BECA-52B5A787D94F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E94CF7-624E-4D97-986E-0661EEB7486D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="26388" yWindow="3444" windowWidth="17280" windowHeight="9036" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -369,7 +369,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -390,7 +390,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>33579</v>
+        <v>33580</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -398,7 +398,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>33579</v>
+        <v>33580</v>
       </c>
     </row>
   </sheetData>
